--- a/data/TableBuilderHelper.xlsx
+++ b/data/TableBuilderHelper.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikec/Desktop/nbaDatabase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2992A38-44E8-644A-9036-45F852714709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA54D77A-7AC1-FC44-96DA-2D5DD951DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="3560" windowWidth="27240" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="positions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="positions" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Employees!$M$1:$M$420</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1086">
   <si>
     <t>employeeID</t>
   </si>
@@ -3435,7 +3436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3615,6 +3616,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3776,9 +3783,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4136,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21178,11 +21187,8976 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DBAC14-FB24-FC45-A68C-6408F58216DF}">
+  <dimension ref="A1:G389"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33838</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34473</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35696</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37053</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32892</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33316</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36035</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1">
+        <v>35765</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37243</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34831</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>265</v>
+      </c>
+      <c r="B12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35677</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>335</v>
+      </c>
+      <c r="B13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36404</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>413</v>
+      </c>
+      <c r="B14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="1">
+        <v>33721</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36057</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3">
+        <v>35364</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34973</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31571</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1">
+        <v>33747</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>239</v>
+      </c>
+      <c r="B20" t="s">
+        <v>558</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36459</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>296</v>
+      </c>
+      <c r="B21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36448</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>331</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="1">
+        <v>35823</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>339</v>
+      </c>
+      <c r="B23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="1">
+        <v>34228</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>354</v>
+      </c>
+      <c r="B24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" s="1">
+        <v>34228</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>362</v>
+      </c>
+      <c r="B25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="1">
+        <v>34400</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>372</v>
+      </c>
+      <c r="B26" t="s">
+        <v>643</v>
+      </c>
+      <c r="C26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="1">
+        <v>35856</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>405</v>
+      </c>
+      <c r="B27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="1">
+        <v>35721</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>406</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1">
+        <v>36130</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1">
+        <v>31250</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>34520</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1">
+        <v>35294</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1">
+        <v>34958</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1">
+        <v>36269</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>488</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="1">
+        <v>32418</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1">
+        <v>32586</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="1">
+        <v>32750</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="1">
+        <v>33491</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="1">
+        <v>31830</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="1">
+        <v>31093</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>279</v>
+      </c>
+      <c r="B40" t="s">
+        <v>587</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="1">
+        <v>32371</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>359</v>
+      </c>
+      <c r="B41" t="s">
+        <v>636</v>
+      </c>
+      <c r="C41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="1">
+        <v>37199</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>375</v>
+      </c>
+      <c r="B42" t="s">
+        <v>620</v>
+      </c>
+      <c r="C42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="1">
+        <v>37178</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1">
+        <v>37123</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36787</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1">
+        <v>35875</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1">
+        <v>36948</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="1">
+        <v>32958</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="1">
+        <v>36911</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>263</v>
+      </c>
+      <c r="B49" t="s">
+        <v>577</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="1">
+        <v>34973</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>451</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="1">
+        <v>35827</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>311</v>
+      </c>
+      <c r="B51" t="s">
+        <v>602</v>
+      </c>
+      <c r="C51" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" s="1">
+        <v>35042</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>609</v>
+      </c>
+      <c r="C52" t="s">
+        <v>281</v>
+      </c>
+      <c r="D52" s="1">
+        <v>32940</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>338</v>
+      </c>
+      <c r="B53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="1">
+        <v>35765</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>349</v>
+      </c>
+      <c r="B54" t="s">
+        <v>626</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" s="1">
+        <v>34411</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>364</v>
+      </c>
+      <c r="B55" t="s">
+        <v>639</v>
+      </c>
+      <c r="C55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="1">
+        <v>32334</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>378</v>
+      </c>
+      <c r="B56" t="s">
+        <v>646</v>
+      </c>
+      <c r="C56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="1">
+        <v>37495</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>652</v>
+      </c>
+      <c r="C57" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" s="1">
+        <v>36031</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="1">
+        <v>35729</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1">
+        <v>35805</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>447</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="1">
+        <v>36371</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>463</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="1">
+        <v>34393</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="1">
+        <v>32728</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>484</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="1">
+        <v>36542</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
+        <v>512</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="1">
+        <v>34174</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>213</v>
+      </c>
+      <c r="B65" t="s">
+        <v>540</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="1">
+        <v>35177</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>219</v>
+      </c>
+      <c r="B66" t="s">
+        <v>493</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="1">
+        <v>35477</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>240</v>
+      </c>
+      <c r="B67" t="s">
+        <v>559</v>
+      </c>
+      <c r="C67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="1">
+        <v>34769</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>644</v>
+      </c>
+      <c r="C68" t="s">
+        <v>330</v>
+      </c>
+      <c r="D68" s="1">
+        <v>34550</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>393</v>
+      </c>
+      <c r="B69" t="s">
+        <v>543</v>
+      </c>
+      <c r="C69" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="1">
+        <v>33174</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>428</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1">
+        <v>37130</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="1">
+        <v>35907</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="1">
+        <v>35046</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>425</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="1">
+        <v>36550</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>251</v>
+      </c>
+      <c r="B74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="1">
+        <v>32396</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>259</v>
+      </c>
+      <c r="B75" t="s">
+        <v>573</v>
+      </c>
+      <c r="C75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="1">
+        <v>35572</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>282</v>
+      </c>
+      <c r="B76" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="1">
+        <v>37061</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>295</v>
+      </c>
+      <c r="B77" t="s">
+        <v>419</v>
+      </c>
+      <c r="C77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="1">
+        <v>36243</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>305</v>
+      </c>
+      <c r="B78" t="s">
+        <v>436</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="1">
+        <v>36915</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>605</v>
+      </c>
+      <c r="C79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="1">
+        <v>34798</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>312</v>
+      </c>
+      <c r="B80" t="s">
+        <v>488</v>
+      </c>
+      <c r="C80" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="1">
+        <v>33995</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>350</v>
+      </c>
+      <c r="B81" t="s">
+        <v>627</v>
+      </c>
+      <c r="C81" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="1">
+        <v>33170</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>357</v>
+      </c>
+      <c r="B82" t="s">
+        <v>634</v>
+      </c>
+      <c r="C82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" s="1">
+        <v>36163</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>367</v>
+      </c>
+      <c r="B83" t="s">
+        <v>640</v>
+      </c>
+      <c r="C83" t="s">
+        <v>322</v>
+      </c>
+      <c r="D83" s="1">
+        <v>35619</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>388</v>
+      </c>
+      <c r="B84" t="s">
+        <v>655</v>
+      </c>
+      <c r="C84" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="1">
+        <v>34290</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>394</v>
+      </c>
+      <c r="B85" t="s">
+        <v>659</v>
+      </c>
+      <c r="C85" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="1">
+        <v>35389</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>450</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="1">
+        <v>34743</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>451</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="1">
+        <v>35309</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>452</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="1">
+        <v>33316</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="1">
+        <v>33922</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="1">
+        <v>34199</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>128</v>
+      </c>
+      <c r="B91" t="s">
+        <v>482</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="1">
+        <v>36218</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>494</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="1">
+        <v>34093</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1">
+        <v>36845</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>174</v>
+      </c>
+      <c r="B94" t="s">
+        <v>518</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" s="1">
+        <v>33681</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>231</v>
+      </c>
+      <c r="B95" t="s">
+        <v>553</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" s="1">
+        <v>33633</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>300</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="1">
+        <v>36006</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>326</v>
+      </c>
+      <c r="B97" t="s">
+        <v>613</v>
+      </c>
+      <c r="C97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" s="1">
+        <v>34915</v>
+      </c>
+      <c r="E97">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>327</v>
+      </c>
+      <c r="B98" t="s">
+        <v>533</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="1">
+        <v>33440</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>420</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="1">
+        <v>33247</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>458</v>
+      </c>
+      <c r="C100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="1">
+        <v>33323</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>131</v>
+      </c>
+      <c r="B101" t="s">
+        <v>485</v>
+      </c>
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="1">
+        <v>35364</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>159</v>
+      </c>
+      <c r="B102" t="s">
+        <v>506</v>
+      </c>
+      <c r="C102" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="1">
+        <v>34958</v>
+      </c>
+      <c r="E102">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>511</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="1">
+        <v>33046</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>168</v>
+      </c>
+      <c r="B104" t="s">
+        <v>513</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="1">
+        <v>31655</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>218</v>
+      </c>
+      <c r="B105" t="s">
+        <v>543</v>
+      </c>
+      <c r="C105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="1">
+        <v>34750</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>288</v>
+      </c>
+      <c r="B106" t="s">
+        <v>592</v>
+      </c>
+      <c r="C106" t="s">
+        <v>250</v>
+      </c>
+      <c r="D106" s="1">
+        <v>34878</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="1">
+        <v>35977</v>
+      </c>
+      <c r="E107">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>340</v>
+      </c>
+      <c r="B108" t="s">
+        <v>619</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="1">
+        <v>33820</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>67</v>
+      </c>
+      <c r="B109" t="s">
+        <v>429</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="1">
+        <v>36258</v>
+      </c>
+      <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>479</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="1">
+        <v>36006</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>482</v>
+      </c>
+      <c r="C111" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="1">
+        <v>36156</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s">
+        <v>508</v>
+      </c>
+      <c r="C112" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" s="1">
+        <v>34407</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>183</v>
+      </c>
+      <c r="B113" t="s">
+        <v>524</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="1">
+        <v>37097</v>
+      </c>
+      <c r="E113">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>206</v>
+      </c>
+      <c r="B114" t="s">
+        <v>378</v>
+      </c>
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="1">
+        <v>35918</v>
+      </c>
+      <c r="E114">
+        <v>9</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>208</v>
+      </c>
+      <c r="B115" t="s">
+        <v>465</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" s="1">
+        <v>35473</v>
+      </c>
+      <c r="E115">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>549</v>
+      </c>
+      <c r="C116" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" s="1">
+        <v>33473</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>243</v>
+      </c>
+      <c r="B117" t="s">
+        <v>562</v>
+      </c>
+      <c r="C117" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="1">
+        <v>36334</v>
+      </c>
+      <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>254</v>
+      </c>
+      <c r="B118" t="s">
+        <v>453</v>
+      </c>
+      <c r="C118" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118" s="1">
+        <v>35009</v>
+      </c>
+      <c r="E118">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>273</v>
+      </c>
+      <c r="B119" t="s">
+        <v>583</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" s="1">
+        <v>33451</v>
+      </c>
+      <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>307</v>
+      </c>
+      <c r="B120" t="s">
+        <v>602</v>
+      </c>
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="1">
+        <v>33349</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>318</v>
+      </c>
+      <c r="B121" t="s">
+        <v>608</v>
+      </c>
+      <c r="C121" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" s="1">
+        <v>35787</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>368</v>
+      </c>
+      <c r="B122" t="s">
+        <v>522</v>
+      </c>
+      <c r="C122" t="s">
+        <v>323</v>
+      </c>
+      <c r="D122" s="1">
+        <v>37032</v>
+      </c>
+      <c r="E122">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>431</v>
+      </c>
+      <c r="C123" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="1">
+        <v>32276</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="1">
+        <v>32221</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>164</v>
+      </c>
+      <c r="B125" t="s">
+        <v>510</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="1">
+        <v>32940</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>487</v>
+      </c>
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="1">
+        <v>30713</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>242</v>
+      </c>
+      <c r="B127" t="s">
+        <v>561</v>
+      </c>
+      <c r="C127" t="s">
+        <v>211</v>
+      </c>
+      <c r="D127" s="1">
+        <v>33900</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>248</v>
+      </c>
+      <c r="B128" t="s">
+        <v>566</v>
+      </c>
+      <c r="C128" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" s="1">
+        <v>35101</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>284</v>
+      </c>
+      <c r="B129" t="s">
+        <v>589</v>
+      </c>
+      <c r="C129" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" s="1">
+        <v>37408</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>316</v>
+      </c>
+      <c r="B130" t="s">
+        <v>606</v>
+      </c>
+      <c r="C130" t="s">
+        <v>278</v>
+      </c>
+      <c r="D130" s="1">
+        <v>33940</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>322</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" t="s">
+        <v>284</v>
+      </c>
+      <c r="D131" s="1">
+        <v>36331</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>325</v>
+      </c>
+      <c r="B132" t="s">
+        <v>612</v>
+      </c>
+      <c r="C132" t="s">
+        <v>285</v>
+      </c>
+      <c r="D132" s="1">
+        <v>34126</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>382</v>
+      </c>
+      <c r="B133" t="s">
+        <v>650</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" s="1">
+        <v>34071</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>404</v>
+      </c>
+      <c r="B134" t="s">
+        <v>666</v>
+      </c>
+      <c r="C134" t="s">
+        <v>357</v>
+      </c>
+      <c r="D134" s="1">
+        <v>34754</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>44</v>
+      </c>
+      <c r="B135" t="s">
+        <v>408</v>
+      </c>
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="1">
+        <v>32093</v>
+      </c>
+      <c r="E135">
+        <v>11</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>85</v>
+      </c>
+      <c r="B136" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="1">
+        <v>35951</v>
+      </c>
+      <c r="E136">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>106</v>
+      </c>
+      <c r="B137" t="s">
+        <v>465</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" s="1">
+        <v>37232</v>
+      </c>
+      <c r="E137">
+        <v>11</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>152</v>
+      </c>
+      <c r="B138" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="1">
+        <v>37324</v>
+      </c>
+      <c r="E138">
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
+        <v>432</v>
+      </c>
+      <c r="C139" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" s="1">
+        <v>32506</v>
+      </c>
+      <c r="E139">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>167</v>
+      </c>
+      <c r="B140" t="s">
+        <v>451</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="1">
+        <v>37294</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>196</v>
+      </c>
+      <c r="B141" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" t="s">
+        <v>175</v>
+      </c>
+      <c r="D141" s="1">
+        <v>34130</v>
+      </c>
+      <c r="E141">
+        <v>11</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>261</v>
+      </c>
+      <c r="B142" t="s">
+        <v>575</v>
+      </c>
+      <c r="C142" t="s">
+        <v>227</v>
+      </c>
+      <c r="D142" s="1">
+        <v>36897</v>
+      </c>
+      <c r="E142">
+        <v>11</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>302</v>
+      </c>
+      <c r="B143" t="s">
+        <v>600</v>
+      </c>
+      <c r="C143" t="s">
+        <v>264</v>
+      </c>
+      <c r="D143" s="1">
+        <v>33984</v>
+      </c>
+      <c r="E143">
+        <v>11</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>323</v>
+      </c>
+      <c r="B144" t="s">
+        <v>488</v>
+      </c>
+      <c r="C144" t="s">
+        <v>285</v>
+      </c>
+      <c r="D144" s="1">
+        <v>36652</v>
+      </c>
+      <c r="E144">
+        <v>11</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>356</v>
+      </c>
+      <c r="B145" t="s">
+        <v>633</v>
+      </c>
+      <c r="C145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" s="1">
+        <v>37462</v>
+      </c>
+      <c r="E145">
+        <v>11</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>371</v>
+      </c>
+      <c r="B146" t="s">
+        <v>642</v>
+      </c>
+      <c r="C146" t="s">
+        <v>326</v>
+      </c>
+      <c r="D146" s="1">
+        <v>35002</v>
+      </c>
+      <c r="E146">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>374</v>
+      </c>
+      <c r="B147" t="s">
+        <v>500</v>
+      </c>
+      <c r="C147" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="1">
+        <v>33699</v>
+      </c>
+      <c r="E147">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>411</v>
+      </c>
+      <c r="B148" t="s">
+        <v>670</v>
+      </c>
+      <c r="C148" t="s">
+        <v>360</v>
+      </c>
+      <c r="D148" s="1">
+        <v>34969</v>
+      </c>
+      <c r="E148">
+        <v>11</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>443</v>
+      </c>
+      <c r="C149" t="s">
+        <v>80</v>
+      </c>
+      <c r="D149" s="1">
+        <v>35966</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>84</v>
+      </c>
+      <c r="B150" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="1">
+        <v>33951</v>
+      </c>
+      <c r="E150">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>116</v>
+      </c>
+      <c r="B151" t="s">
+        <v>472</v>
+      </c>
+      <c r="C151" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="1">
+        <v>33228</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>134</v>
+      </c>
+      <c r="B152" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D152" s="1">
+        <v>35593</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>193</v>
+      </c>
+      <c r="B153" t="s">
+        <v>464</v>
+      </c>
+      <c r="C153" t="s">
+        <v>172</v>
+      </c>
+      <c r="D153" s="1">
+        <v>32604</v>
+      </c>
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>207</v>
+      </c>
+      <c r="B154" t="s">
+        <v>522</v>
+      </c>
+      <c r="C154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" s="1">
+        <v>37265</v>
+      </c>
+      <c r="E154">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>237</v>
+      </c>
+      <c r="B155" t="s">
+        <v>556</v>
+      </c>
+      <c r="C155" t="s">
+        <v>206</v>
+      </c>
+      <c r="D155" s="1">
+        <v>33758</v>
+      </c>
+      <c r="E155">
+        <v>12</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>268</v>
+      </c>
+      <c r="B156" t="s">
+        <v>579</v>
+      </c>
+      <c r="C156" t="s">
+        <v>233</v>
+      </c>
+      <c r="D156" s="1">
+        <v>33692</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>352</v>
+      </c>
+      <c r="B157" t="s">
+        <v>629</v>
+      </c>
+      <c r="C157" t="s">
+        <v>308</v>
+      </c>
+      <c r="D157" s="1">
+        <v>35188</v>
+      </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>386</v>
+      </c>
+      <c r="B158" t="s">
+        <v>653</v>
+      </c>
+      <c r="C158" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" s="1">
+        <v>35148</v>
+      </c>
+      <c r="E158">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>399</v>
+      </c>
+      <c r="B159" t="s">
+        <v>664</v>
+      </c>
+      <c r="C159" t="s">
+        <v>352</v>
+      </c>
+      <c r="D159" s="1">
+        <v>32717</v>
+      </c>
+      <c r="E159">
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>41</v>
+      </c>
+      <c r="B160" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160" s="1">
+        <v>30834</v>
+      </c>
+      <c r="E160">
+        <v>13</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>60</v>
+      </c>
+      <c r="B161" t="s">
+        <v>424</v>
+      </c>
+      <c r="C161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161" s="1">
+        <v>32692</v>
+      </c>
+      <c r="E161">
+        <v>13</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>78</v>
+      </c>
+      <c r="B162" t="s">
+        <v>438</v>
+      </c>
+      <c r="C162" t="s">
+        <v>77</v>
+      </c>
+      <c r="D162" s="1">
+        <v>33206</v>
+      </c>
+      <c r="E162">
+        <v>13</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>120</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" s="1">
+        <v>34042</v>
+      </c>
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>197</v>
+      </c>
+      <c r="B164" t="s">
+        <v>533</v>
+      </c>
+      <c r="C164" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="1">
+        <v>31392</v>
+      </c>
+      <c r="E164">
+        <v>13</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>210</v>
+      </c>
+      <c r="B165" t="s">
+        <v>538</v>
+      </c>
+      <c r="C165" t="s">
+        <v>186</v>
+      </c>
+      <c r="D165" s="1">
+        <v>31049</v>
+      </c>
+      <c r="E165">
+        <v>13</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>224</v>
+      </c>
+      <c r="B166" t="s">
+        <v>548</v>
+      </c>
+      <c r="C166" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" s="1">
+        <v>32349</v>
+      </c>
+      <c r="E166">
+        <v>13</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>283</v>
+      </c>
+      <c r="B167" t="s">
+        <v>426</v>
+      </c>
+      <c r="C167" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" s="1">
+        <v>35831</v>
+      </c>
+      <c r="E167">
+        <v>13</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>619</v>
+      </c>
+      <c r="C168" t="s">
+        <v>293</v>
+      </c>
+      <c r="D168" s="1">
+        <v>35944</v>
+      </c>
+      <c r="E168">
+        <v>13</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>346</v>
+      </c>
+      <c r="B169" t="s">
+        <v>624</v>
+      </c>
+      <c r="C169" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="1">
+        <v>31469</v>
+      </c>
+      <c r="E169">
+        <v>13</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>401</v>
+      </c>
+      <c r="B170" t="s">
+        <v>307</v>
+      </c>
+      <c r="C170" t="s">
+        <v>354</v>
+      </c>
+      <c r="D170" s="1">
+        <v>32462</v>
+      </c>
+      <c r="E170">
+        <v>13</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>32</v>
+      </c>
+      <c r="B171" t="s">
+        <v>396</v>
+      </c>
+      <c r="C171" t="s">
+        <v>37</v>
+      </c>
+      <c r="D171" s="1">
+        <v>34170</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>38</v>
+      </c>
+      <c r="B172" t="s">
+        <v>402</v>
+      </c>
+      <c r="C172" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="1">
+        <v>34232</v>
+      </c>
+      <c r="E172">
+        <v>14</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>51</v>
+      </c>
+      <c r="B173" t="s">
+        <v>415</v>
+      </c>
+      <c r="C173" t="s">
+        <v>52</v>
+      </c>
+      <c r="D173" s="1">
+        <v>35973</v>
+      </c>
+      <c r="E173">
+        <v>14</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>107</v>
+      </c>
+      <c r="B174" t="s">
+        <v>466</v>
+      </c>
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+      <c r="D174" s="1">
+        <v>35327</v>
+      </c>
+      <c r="E174">
+        <v>14</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>205</v>
+      </c>
+      <c r="B175" t="s">
+        <v>537</v>
+      </c>
+      <c r="C175" t="s">
+        <v>184</v>
+      </c>
+      <c r="D175" s="1">
+        <v>36418</v>
+      </c>
+      <c r="E175">
+        <v>14</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>223</v>
+      </c>
+      <c r="B176" t="s">
+        <v>547</v>
+      </c>
+      <c r="C176" t="s">
+        <v>192</v>
+      </c>
+      <c r="D176" s="1">
+        <v>35196</v>
+      </c>
+      <c r="E176">
+        <v>14</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>233</v>
+      </c>
+      <c r="B177" t="s">
+        <v>468</v>
+      </c>
+      <c r="C177" t="s">
+        <v>202</v>
+      </c>
+      <c r="D177" s="1">
+        <v>35148</v>
+      </c>
+      <c r="E177">
+        <v>14</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>276</v>
+      </c>
+      <c r="B178" t="s">
+        <v>585</v>
+      </c>
+      <c r="C178" t="s">
+        <v>240</v>
+      </c>
+      <c r="D178" s="1">
+        <v>35944</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>285</v>
+      </c>
+      <c r="B179" t="s">
+        <v>590</v>
+      </c>
+      <c r="C179" t="s">
+        <v>248</v>
+      </c>
+      <c r="D179" s="1">
+        <v>36382</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>380</v>
+      </c>
+      <c r="B180" t="s">
+        <v>648</v>
+      </c>
+      <c r="C180" t="s">
+        <v>334</v>
+      </c>
+      <c r="D180" s="1">
+        <v>36174</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>409</v>
+      </c>
+      <c r="B181" t="s">
+        <v>668</v>
+      </c>
+      <c r="C181" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="1">
+        <v>37145</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>33</v>
+      </c>
+      <c r="B182" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182" s="1">
+        <v>35630</v>
+      </c>
+      <c r="E182">
+        <v>15</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>96</v>
+      </c>
+      <c r="B183" t="s">
+        <v>456</v>
+      </c>
+      <c r="C183" t="s">
+        <v>90</v>
+      </c>
+      <c r="D183" s="1">
+        <v>32768</v>
+      </c>
+      <c r="E183">
+        <v>15</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>123</v>
+      </c>
+      <c r="B184" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" t="s">
+        <v>115</v>
+      </c>
+      <c r="D184" s="1">
+        <v>32736</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>151</v>
+      </c>
+      <c r="B185" t="s">
+        <v>501</v>
+      </c>
+      <c r="C185" t="s">
+        <v>143</v>
+      </c>
+      <c r="D185" s="1">
+        <v>36108</v>
+      </c>
+      <c r="E185">
+        <v>15</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" t="s">
+        <v>169</v>
+      </c>
+      <c r="D186" s="1">
+        <v>36546</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>252</v>
+      </c>
+      <c r="B187" t="s">
+        <v>402</v>
+      </c>
+      <c r="C187" t="s">
+        <v>219</v>
+      </c>
+      <c r="D187" s="1">
+        <v>31498</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>262</v>
+      </c>
+      <c r="B188" t="s">
+        <v>576</v>
+      </c>
+      <c r="C188" t="s">
+        <v>228</v>
+      </c>
+      <c r="D188" s="1">
+        <v>34973</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>287</v>
+      </c>
+      <c r="B189" t="s">
+        <v>591</v>
+      </c>
+      <c r="C189" t="s">
+        <v>250</v>
+      </c>
+      <c r="D189" s="1">
+        <v>32754</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>306</v>
+      </c>
+      <c r="B190" t="s">
+        <v>601</v>
+      </c>
+      <c r="C190" t="s">
+        <v>268</v>
+      </c>
+      <c r="D190" s="1">
+        <v>36280</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>341</v>
+      </c>
+      <c r="B191" t="s">
+        <v>622</v>
+      </c>
+      <c r="C191" t="s">
+        <v>299</v>
+      </c>
+      <c r="D191" s="1">
+        <v>34447</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>369</v>
+      </c>
+      <c r="B192" t="s">
+        <v>641</v>
+      </c>
+      <c r="C192" t="s">
+        <v>324</v>
+      </c>
+      <c r="D192" s="1">
+        <v>35152</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>385</v>
+      </c>
+      <c r="B193" t="s">
+        <v>652</v>
+      </c>
+      <c r="C193" t="s">
+        <v>339</v>
+      </c>
+      <c r="D193" s="1">
+        <v>31177</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>392</v>
+      </c>
+      <c r="B194" t="s">
+        <v>658</v>
+      </c>
+      <c r="C194" t="s">
+        <v>346</v>
+      </c>
+      <c r="D194" s="1">
+        <v>35232</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>416</v>
+      </c>
+      <c r="B195" t="s">
+        <v>675</v>
+      </c>
+      <c r="C195" t="s">
+        <v>364</v>
+      </c>
+      <c r="D195" s="1">
+        <v>35966</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>36</v>
+      </c>
+      <c r="B196" t="s">
+        <v>400</v>
+      </c>
+      <c r="C196" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" s="1">
+        <v>34980</v>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>39</v>
+      </c>
+      <c r="B197" t="s">
+        <v>403</v>
+      </c>
+      <c r="C197" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197" s="1">
+        <v>34674</v>
+      </c>
+      <c r="E197">
+        <v>16</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>40</v>
+      </c>
+      <c r="B198" t="s">
+        <v>404</v>
+      </c>
+      <c r="C198" t="s">
+        <v>43</v>
+      </c>
+      <c r="D198" s="1">
+        <v>33805</v>
+      </c>
+      <c r="E198">
+        <v>16</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>113</v>
+      </c>
+      <c r="B199" t="s">
+        <v>469</v>
+      </c>
+      <c r="C199" t="s">
+        <v>107</v>
+      </c>
+      <c r="D199" s="1">
+        <v>33977</v>
+      </c>
+      <c r="E199">
+        <v>16</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>189</v>
+      </c>
+      <c r="B200" t="s">
+        <v>146</v>
+      </c>
+      <c r="C200" t="s">
+        <v>171</v>
+      </c>
+      <c r="D200" s="1">
+        <v>31538</v>
+      </c>
+      <c r="E200">
+        <v>16</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>192</v>
+      </c>
+      <c r="B201" t="s">
+        <v>529</v>
+      </c>
+      <c r="C201" t="s">
+        <v>172</v>
+      </c>
+      <c r="D201" s="1">
+        <v>33038</v>
+      </c>
+      <c r="E201">
+        <v>16</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>226</v>
+      </c>
+      <c r="B202" t="s">
+        <v>550</v>
+      </c>
+      <c r="C202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D202" s="1">
+        <v>36163</v>
+      </c>
+      <c r="E202">
+        <v>16</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>249</v>
+      </c>
+      <c r="B203" t="s">
+        <v>567</v>
+      </c>
+      <c r="C203" t="s">
+        <v>217</v>
+      </c>
+      <c r="D203" s="1">
+        <v>32239</v>
+      </c>
+      <c r="E203">
+        <v>16</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>256</v>
+      </c>
+      <c r="B204" t="s">
+        <v>571</v>
+      </c>
+      <c r="C204" t="s">
+        <v>223</v>
+      </c>
+      <c r="D204" s="1">
+        <v>36302</v>
+      </c>
+      <c r="E204">
+        <v>16</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>277</v>
+      </c>
+      <c r="B205" t="s">
+        <v>586</v>
+      </c>
+      <c r="C205" t="s">
+        <v>241</v>
+      </c>
+      <c r="D205" s="1">
+        <v>33466</v>
+      </c>
+      <c r="E205">
+        <v>16</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>303</v>
+      </c>
+      <c r="B206" t="s">
+        <v>193</v>
+      </c>
+      <c r="C206" t="s">
+        <v>265</v>
+      </c>
+      <c r="D206" s="1">
+        <v>36046</v>
+      </c>
+      <c r="E206">
+        <v>16</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>343</v>
+      </c>
+      <c r="B207" t="s">
+        <v>464</v>
+      </c>
+      <c r="C207" t="s">
+        <v>299</v>
+      </c>
+      <c r="D207" s="1">
+        <v>35714</v>
+      </c>
+      <c r="E207">
+        <v>16</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>63</v>
+      </c>
+      <c r="B208" t="s">
+        <v>426</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" s="1">
+        <v>35396</v>
+      </c>
+      <c r="E208">
+        <v>17</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>66</v>
+      </c>
+      <c r="B209" t="s">
+        <v>428</v>
+      </c>
+      <c r="C209" t="s">
+        <v>66</v>
+      </c>
+      <c r="D209" s="1">
+        <v>32338</v>
+      </c>
+      <c r="E209">
+        <v>17</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>73</v>
+      </c>
+      <c r="B210" t="s">
+        <v>435</v>
+      </c>
+      <c r="C210" t="s">
+        <v>72</v>
+      </c>
+      <c r="D210" s="1">
+        <v>36780</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>136</v>
+      </c>
+      <c r="B211" t="s">
+        <v>44</v>
+      </c>
+      <c r="C211" t="s">
+        <v>128</v>
+      </c>
+      <c r="D211" s="1">
+        <v>37108</v>
+      </c>
+      <c r="E211">
+        <v>17</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>241</v>
+      </c>
+      <c r="B212" t="s">
+        <v>560</v>
+      </c>
+      <c r="C212" t="s">
+        <v>210</v>
+      </c>
+      <c r="D212" s="1">
+        <v>34400</v>
+      </c>
+      <c r="E212">
+        <v>17</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>269</v>
+      </c>
+      <c r="B213" t="s">
+        <v>580</v>
+      </c>
+      <c r="C213" t="s">
+        <v>234</v>
+      </c>
+      <c r="D213" s="1">
+        <v>36798</v>
+      </c>
+      <c r="E213">
+        <v>17</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>274</v>
+      </c>
+      <c r="B214" t="s">
+        <v>193</v>
+      </c>
+      <c r="C214" t="s">
+        <v>238</v>
+      </c>
+      <c r="D214" s="1">
+        <v>35166</v>
+      </c>
+      <c r="E214">
+        <v>17</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>299</v>
+      </c>
+      <c r="B215" t="s">
+        <v>449</v>
+      </c>
+      <c r="C215" t="s">
+        <v>261</v>
+      </c>
+      <c r="D215" s="1">
+        <v>36349</v>
+      </c>
+      <c r="E215">
+        <v>17</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>304</v>
+      </c>
+      <c r="B216" t="s">
+        <v>465</v>
+      </c>
+      <c r="C216" t="s">
+        <v>266</v>
+      </c>
+      <c r="D216" s="1">
+        <v>36039</v>
+      </c>
+      <c r="E216">
+        <v>17</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>330</v>
+      </c>
+      <c r="B217" t="s">
+        <v>616</v>
+      </c>
+      <c r="C217" t="s">
+        <v>289</v>
+      </c>
+      <c r="D217" s="1">
+        <v>34418</v>
+      </c>
+      <c r="E217">
+        <v>17</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>337</v>
+      </c>
+      <c r="B218" t="s">
+        <v>621</v>
+      </c>
+      <c r="C218" t="s">
+        <v>296</v>
+      </c>
+      <c r="D218" s="1">
+        <v>36400</v>
+      </c>
+      <c r="E218">
+        <v>17</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>351</v>
+      </c>
+      <c r="B219" t="s">
+        <v>628</v>
+      </c>
+      <c r="C219" t="s">
+        <v>307</v>
+      </c>
+      <c r="D219" s="1">
+        <v>35119</v>
+      </c>
+      <c r="E219">
+        <v>17</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>383</v>
+      </c>
+      <c r="B220" t="s">
+        <v>651</v>
+      </c>
+      <c r="C220" t="s">
+        <v>337</v>
+      </c>
+      <c r="D220" s="1">
+        <v>35020</v>
+      </c>
+      <c r="E220">
+        <v>17</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>389</v>
+      </c>
+      <c r="B221" t="s">
+        <v>656</v>
+      </c>
+      <c r="C221" t="s">
+        <v>343</v>
+      </c>
+      <c r="D221" s="1">
+        <v>36254</v>
+      </c>
+      <c r="E221">
+        <v>17</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>412</v>
+      </c>
+      <c r="B222" t="s">
+        <v>671</v>
+      </c>
+      <c r="C222" t="s">
+        <v>361</v>
+      </c>
+      <c r="D222" s="1">
+        <v>36094</v>
+      </c>
+      <c r="E222">
+        <v>17</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>35</v>
+      </c>
+      <c r="B223" t="s">
+        <v>399</v>
+      </c>
+      <c r="C223" t="s">
+        <v>40</v>
+      </c>
+      <c r="D223" s="1">
+        <v>36039</v>
+      </c>
+      <c r="E223">
+        <v>18</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>161</v>
+      </c>
+      <c r="B224" t="s">
+        <v>507</v>
+      </c>
+      <c r="C224" t="s">
+        <v>152</v>
+      </c>
+      <c r="D224" s="1">
+        <v>34754</v>
+      </c>
+      <c r="E224">
+        <v>18</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>181</v>
+      </c>
+      <c r="B225" t="s">
+        <v>465</v>
+      </c>
+      <c r="C225" t="s">
+        <v>164</v>
+      </c>
+      <c r="D225" s="1">
+        <v>34765</v>
+      </c>
+      <c r="E225">
+        <v>18</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>182</v>
+      </c>
+      <c r="B226" t="s">
+        <v>523</v>
+      </c>
+      <c r="C226" t="s">
+        <v>165</v>
+      </c>
+      <c r="D226" s="1">
+        <v>36670</v>
+      </c>
+      <c r="E226">
+        <v>18</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>204</v>
+      </c>
+      <c r="B227" t="s">
+        <v>466</v>
+      </c>
+      <c r="C227" t="s">
+        <v>183</v>
+      </c>
+      <c r="D227" s="1">
+        <v>35674</v>
+      </c>
+      <c r="E227">
+        <v>18</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>220</v>
+      </c>
+      <c r="B228" t="s">
+        <v>544</v>
+      </c>
+      <c r="C228" t="s">
+        <v>192</v>
+      </c>
+      <c r="D228" s="1">
+        <v>36075</v>
+      </c>
+      <c r="E228">
+        <v>18</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>245</v>
+      </c>
+      <c r="B229" t="s">
+        <v>563</v>
+      </c>
+      <c r="C229" t="s">
+        <v>213</v>
+      </c>
+      <c r="D229" s="1">
+        <v>36988</v>
+      </c>
+      <c r="E229">
+        <v>18</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>260</v>
+      </c>
+      <c r="B230" t="s">
+        <v>574</v>
+      </c>
+      <c r="C230" t="s">
+        <v>226</v>
+      </c>
+      <c r="D230" s="1">
+        <v>35820</v>
+      </c>
+      <c r="E230">
+        <v>18</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>289</v>
+      </c>
+      <c r="B231" t="s">
+        <v>453</v>
+      </c>
+      <c r="C231" t="s">
+        <v>251</v>
+      </c>
+      <c r="D231" s="1">
+        <v>36696</v>
+      </c>
+      <c r="E231">
+        <v>18</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>353</v>
+      </c>
+      <c r="B232" t="s">
+        <v>630</v>
+      </c>
+      <c r="C232" t="s">
+        <v>309</v>
+      </c>
+      <c r="D232" s="1">
+        <v>33542</v>
+      </c>
+      <c r="E232">
+        <v>18</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>373</v>
+      </c>
+      <c r="B233" t="s">
+        <v>143</v>
+      </c>
+      <c r="C233" t="s">
+        <v>328</v>
+      </c>
+      <c r="D233" s="1">
+        <v>31542</v>
+      </c>
+      <c r="E233">
+        <v>18</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>387</v>
+      </c>
+      <c r="B234" t="s">
+        <v>654</v>
+      </c>
+      <c r="C234" t="s">
+        <v>341</v>
+      </c>
+      <c r="D234" s="1">
+        <v>33732</v>
+      </c>
+      <c r="E234">
+        <v>18</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>55</v>
+      </c>
+      <c r="B235" t="s">
+        <v>419</v>
+      </c>
+      <c r="C235" t="s">
+        <v>55</v>
+      </c>
+      <c r="D235" s="1">
+        <v>36692</v>
+      </c>
+      <c r="E235">
+        <v>19</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>94</v>
+      </c>
+      <c r="B236" t="s">
+        <v>454</v>
+      </c>
+      <c r="C236" t="s">
+        <v>89</v>
+      </c>
+      <c r="D236" s="1">
+        <v>33440</v>
+      </c>
+      <c r="E236">
+        <v>19</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>147</v>
+      </c>
+      <c r="B237" t="s">
+        <v>498</v>
+      </c>
+      <c r="C237" t="s">
+        <v>139</v>
+      </c>
+      <c r="D237" s="1">
+        <v>33907</v>
+      </c>
+      <c r="E237">
+        <v>19</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>155</v>
+      </c>
+      <c r="B238" t="s">
+        <v>503</v>
+      </c>
+      <c r="C238" t="s">
+        <v>147</v>
+      </c>
+      <c r="D238" s="1">
+        <v>31224</v>
+      </c>
+      <c r="E238">
+        <v>19</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>171</v>
+      </c>
+      <c r="B239" t="s">
+        <v>515</v>
+      </c>
+      <c r="C239" t="s">
+        <v>155</v>
+      </c>
+      <c r="D239" s="1">
+        <v>36656</v>
+      </c>
+      <c r="E239">
+        <v>19</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>232</v>
+      </c>
+      <c r="B240" t="s">
+        <v>488</v>
+      </c>
+      <c r="C240" t="s">
+        <v>201</v>
+      </c>
+      <c r="D240" s="1">
+        <v>36382</v>
+      </c>
+      <c r="E240">
+        <v>19</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>266</v>
+      </c>
+      <c r="B241" t="s">
+        <v>441</v>
+      </c>
+      <c r="C241" t="s">
+        <v>231</v>
+      </c>
+      <c r="D241" s="1">
+        <v>36776</v>
+      </c>
+      <c r="E241">
+        <v>19</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>332</v>
+      </c>
+      <c r="B242" t="s">
+        <v>617</v>
+      </c>
+      <c r="C242" t="s">
+        <v>291</v>
+      </c>
+      <c r="D242" s="1">
+        <v>36327</v>
+      </c>
+      <c r="E242">
+        <v>19</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>333</v>
+      </c>
+      <c r="B243" t="s">
+        <v>618</v>
+      </c>
+      <c r="C243" t="s">
+        <v>292</v>
+      </c>
+      <c r="D243" s="1">
+        <v>34670</v>
+      </c>
+      <c r="E243">
+        <v>19</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>344</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244" t="s">
+        <v>299</v>
+      </c>
+      <c r="D244" s="1">
+        <v>35885</v>
+      </c>
+      <c r="E244">
+        <v>19</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>347</v>
+      </c>
+      <c r="B245" t="s">
+        <v>493</v>
+      </c>
+      <c r="C245" t="s">
+        <v>303</v>
+      </c>
+      <c r="D245" s="1">
+        <v>32422</v>
+      </c>
+      <c r="E245">
+        <v>19</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>355</v>
+      </c>
+      <c r="B246" t="s">
+        <v>632</v>
+      </c>
+      <c r="C246" t="s">
+        <v>311</v>
+      </c>
+      <c r="D246" s="1">
+        <v>34608</v>
+      </c>
+      <c r="E246">
+        <v>19</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>361</v>
+      </c>
+      <c r="B247" t="s">
+        <v>638</v>
+      </c>
+      <c r="C247" t="s">
+        <v>317</v>
+      </c>
+      <c r="D247" s="1">
+        <v>36090</v>
+      </c>
+      <c r="E247">
+        <v>19</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>381</v>
+      </c>
+      <c r="B248" t="s">
+        <v>649</v>
+      </c>
+      <c r="C248" t="s">
+        <v>335</v>
+      </c>
+      <c r="D248" s="1">
+        <v>35860</v>
+      </c>
+      <c r="E248">
+        <v>19</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>398</v>
+      </c>
+      <c r="B249" t="s">
+        <v>663</v>
+      </c>
+      <c r="C249" t="s">
+        <v>351</v>
+      </c>
+      <c r="D249" s="1">
+        <v>33002</v>
+      </c>
+      <c r="E249">
+        <v>19</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>61</v>
+      </c>
+      <c r="B250" t="s">
+        <v>425</v>
+      </c>
+      <c r="C250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D250" s="1">
+        <v>36688</v>
+      </c>
+      <c r="E250">
+        <v>20</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>122</v>
+      </c>
+      <c r="B251" t="s">
+        <v>476</v>
+      </c>
+      <c r="C251" t="s">
+        <v>114</v>
+      </c>
+      <c r="D251" s="1">
+        <v>34739</v>
+      </c>
+      <c r="E251">
+        <v>20</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>129</v>
+      </c>
+      <c r="B252" t="s">
+        <v>483</v>
+      </c>
+      <c r="C252" t="s">
+        <v>121</v>
+      </c>
+      <c r="D252" s="1">
+        <v>36269</v>
+      </c>
+      <c r="E252">
+        <v>20</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>141</v>
+      </c>
+      <c r="B253" t="s">
+        <v>493</v>
+      </c>
+      <c r="C253" t="s">
+        <v>133</v>
+      </c>
+      <c r="D253" s="1">
+        <v>33436</v>
+      </c>
+      <c r="E253">
+        <v>20</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>156</v>
+      </c>
+      <c r="B254" t="s">
+        <v>465</v>
+      </c>
+      <c r="C254" t="s">
+        <v>148</v>
+      </c>
+      <c r="D254" s="1">
+        <v>37539</v>
+      </c>
+      <c r="E254">
+        <v>20</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>157</v>
+      </c>
+      <c r="B255" t="s">
+        <v>504</v>
+      </c>
+      <c r="C255" t="s">
+        <v>149</v>
+      </c>
+      <c r="D255" s="1">
+        <v>35988</v>
+      </c>
+      <c r="E255">
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>211</v>
+      </c>
+      <c r="B256" t="s">
+        <v>539</v>
+      </c>
+      <c r="C256" t="s">
+        <v>187</v>
+      </c>
+      <c r="D256" s="1">
+        <v>35619</v>
+      </c>
+      <c r="E256">
+        <v>20</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>235</v>
+      </c>
+      <c r="B257" t="s">
+        <v>555</v>
+      </c>
+      <c r="C257" t="s">
+        <v>204</v>
+      </c>
+      <c r="D257" s="1">
+        <v>36696</v>
+      </c>
+      <c r="E257">
+        <v>20</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258" t="s">
+        <v>570</v>
+      </c>
+      <c r="C258" t="s">
+        <v>222</v>
+      </c>
+      <c r="D258" s="1">
+        <v>37053</v>
+      </c>
+      <c r="E258">
+        <v>20</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>546</v>
+      </c>
+      <c r="C259" t="s">
+        <v>224</v>
+      </c>
+      <c r="D259" s="1">
+        <v>36926</v>
+      </c>
+      <c r="E259">
+        <v>20</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>291</v>
+      </c>
+      <c r="B260" t="s">
+        <v>381</v>
+      </c>
+      <c r="C260" t="s">
+        <v>253</v>
+      </c>
+      <c r="D260" s="1">
+        <v>33422</v>
+      </c>
+      <c r="E260">
+        <v>20</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>321</v>
+      </c>
+      <c r="B261" t="s">
+        <v>611</v>
+      </c>
+      <c r="C261" t="s">
+        <v>283</v>
+      </c>
+      <c r="D261" s="1">
+        <v>37251</v>
+      </c>
+      <c r="E261">
+        <v>20</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>342</v>
+      </c>
+      <c r="B262" t="s">
+        <v>623</v>
+      </c>
+      <c r="C262" t="s">
+        <v>300</v>
+      </c>
+      <c r="D262" s="1">
+        <v>36834</v>
+      </c>
+      <c r="E262">
+        <v>20</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>345</v>
+      </c>
+      <c r="B263" t="s">
+        <v>522</v>
+      </c>
+      <c r="C263" t="s">
+        <v>301</v>
+      </c>
+      <c r="D263" s="1">
+        <v>35831</v>
+      </c>
+      <c r="E263">
+        <v>20</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>407</v>
+      </c>
+      <c r="B264" t="s">
+        <v>667</v>
+      </c>
+      <c r="C264" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" s="1">
+        <v>34670</v>
+      </c>
+      <c r="E264">
+        <v>20</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>42</v>
+      </c>
+      <c r="B265" t="s">
+        <v>406</v>
+      </c>
+      <c r="C265" t="s">
+        <v>44</v>
+      </c>
+      <c r="D265" s="1">
+        <v>36663</v>
+      </c>
+      <c r="E265">
+        <v>21</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>50</v>
+      </c>
+      <c r="B266" t="s">
+        <v>414</v>
+      </c>
+      <c r="C266" t="s">
+        <v>51</v>
+      </c>
+      <c r="D266" s="1">
+        <v>35926</v>
+      </c>
+      <c r="E266">
+        <v>21</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>80</v>
+      </c>
+      <c r="B267" t="s">
+        <v>440</v>
+      </c>
+      <c r="C267" t="s">
+        <v>78</v>
+      </c>
+      <c r="D267" s="1">
+        <v>36170</v>
+      </c>
+      <c r="E267">
+        <v>21</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>101</v>
+      </c>
+      <c r="B268" t="s">
+        <v>461</v>
+      </c>
+      <c r="C268" t="s">
+        <v>95</v>
+      </c>
+      <c r="D268" s="1">
+        <v>36265</v>
+      </c>
+      <c r="E268">
+        <v>21</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>173</v>
+      </c>
+      <c r="B269" t="s">
+        <v>517</v>
+      </c>
+      <c r="C269" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" s="1">
+        <v>36929</v>
+      </c>
+      <c r="E269">
+        <v>21</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>250</v>
+      </c>
+      <c r="B270" t="s">
+        <v>568</v>
+      </c>
+      <c r="C270" t="s">
+        <v>217</v>
+      </c>
+      <c r="D270" s="1">
+        <v>32239</v>
+      </c>
+      <c r="E270">
+        <v>21</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>348</v>
+      </c>
+      <c r="B271" t="s">
+        <v>625</v>
+      </c>
+      <c r="C271" t="s">
+        <v>304</v>
+      </c>
+      <c r="D271" s="1">
+        <v>33276</v>
+      </c>
+      <c r="E271">
+        <v>21</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>370</v>
+      </c>
+      <c r="B272" t="s">
+        <v>451</v>
+      </c>
+      <c r="C272" t="s">
+        <v>325</v>
+      </c>
+      <c r="D272" s="1">
+        <v>37046</v>
+      </c>
+      <c r="E272">
+        <v>21</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>395</v>
+      </c>
+      <c r="B273" t="s">
+        <v>660</v>
+      </c>
+      <c r="C273" t="s">
+        <v>349</v>
+      </c>
+      <c r="D273" s="1">
+        <v>37130</v>
+      </c>
+      <c r="E273">
+        <v>21</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>396</v>
+      </c>
+      <c r="B274" t="s">
+        <v>661</v>
+      </c>
+      <c r="C274" t="s">
+        <v>349</v>
+      </c>
+      <c r="D274" s="1">
+        <v>35546</v>
+      </c>
+      <c r="E274">
+        <v>21</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>57</v>
+      </c>
+      <c r="B275" t="s">
+        <v>421</v>
+      </c>
+      <c r="C275" t="s">
+        <v>57</v>
+      </c>
+      <c r="D275" s="1">
+        <v>36827</v>
+      </c>
+      <c r="E275">
+        <v>22</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>118</v>
+      </c>
+      <c r="B276" t="s">
+        <v>474</v>
+      </c>
+      <c r="C276" t="s">
+        <v>112</v>
+      </c>
+      <c r="D276" s="1">
+        <v>33111</v>
+      </c>
+      <c r="E276">
+        <v>22</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>133</v>
+      </c>
+      <c r="B277" t="s">
+        <v>487</v>
+      </c>
+      <c r="C277" t="s">
+        <v>125</v>
+      </c>
+      <c r="D277" s="1">
+        <v>34192</v>
+      </c>
+      <c r="E277">
+        <v>22</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>138</v>
+      </c>
+      <c r="B278" t="s">
+        <v>490</v>
+      </c>
+      <c r="C278" t="s">
+        <v>130</v>
+      </c>
+      <c r="D278" s="1">
+        <v>34411</v>
+      </c>
+      <c r="E278">
+        <v>22</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>163</v>
+      </c>
+      <c r="B279" t="s">
+        <v>509</v>
+      </c>
+      <c r="C279" t="s">
+        <v>24</v>
+      </c>
+      <c r="D279" s="1">
+        <v>31954</v>
+      </c>
+      <c r="E279">
+        <v>22</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>179</v>
+      </c>
+      <c r="B280" t="s">
+        <v>521</v>
+      </c>
+      <c r="C280" t="s">
+        <v>162</v>
+      </c>
+      <c r="D280" s="1">
+        <v>33801</v>
+      </c>
+      <c r="E280">
+        <v>22</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>185</v>
+      </c>
+      <c r="B281" t="s">
+        <v>506</v>
+      </c>
+      <c r="C281" t="s">
+        <v>167</v>
+      </c>
+      <c r="D281" s="1">
+        <v>36404</v>
+      </c>
+      <c r="E281">
+        <v>22</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>212</v>
+      </c>
+      <c r="B282" t="s">
+        <v>522</v>
+      </c>
+      <c r="C282" t="s">
+        <v>188</v>
+      </c>
+      <c r="D282" s="1">
+        <v>36342</v>
+      </c>
+      <c r="E282">
+        <v>22</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>234</v>
+      </c>
+      <c r="B283" t="s">
+        <v>554</v>
+      </c>
+      <c r="C283" t="s">
+        <v>203</v>
+      </c>
+      <c r="D283" s="1">
+        <v>35634</v>
+      </c>
+      <c r="E283">
+        <v>22</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>264</v>
+      </c>
+      <c r="B284" t="s">
+        <v>516</v>
+      </c>
+      <c r="C284" t="s">
+        <v>229</v>
+      </c>
+      <c r="D284" s="1">
+        <v>36834</v>
+      </c>
+      <c r="E284">
+        <v>22</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>298</v>
+      </c>
+      <c r="B285" t="s">
+        <v>598</v>
+      </c>
+      <c r="C285" t="s">
+        <v>260</v>
+      </c>
+      <c r="D285" s="1">
+        <v>34137</v>
+      </c>
+      <c r="E285">
+        <v>22</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>336</v>
+      </c>
+      <c r="B286" t="s">
+        <v>276</v>
+      </c>
+      <c r="C286" t="s">
+        <v>295</v>
+      </c>
+      <c r="D286" s="1">
+        <v>36327</v>
+      </c>
+      <c r="E286">
+        <v>22</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>366</v>
+      </c>
+      <c r="B287" t="s">
+        <v>580</v>
+      </c>
+      <c r="C287" t="s">
+        <v>321</v>
+      </c>
+      <c r="D287" s="1">
+        <v>37524</v>
+      </c>
+      <c r="E287">
+        <v>22</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>379</v>
+      </c>
+      <c r="B288" t="s">
+        <v>647</v>
+      </c>
+      <c r="C288" t="s">
+        <v>333</v>
+      </c>
+      <c r="D288" s="1">
+        <v>35495</v>
+      </c>
+      <c r="E288">
+        <v>22</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>46</v>
+      </c>
+      <c r="B289" t="s">
+        <v>410</v>
+      </c>
+      <c r="C289" t="s">
+        <v>48</v>
+      </c>
+      <c r="D289" s="1">
+        <v>35999</v>
+      </c>
+      <c r="E289">
+        <v>23</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>75</v>
+      </c>
+      <c r="B290" t="s">
+        <v>437</v>
+      </c>
+      <c r="C290" t="s">
+        <v>74</v>
+      </c>
+      <c r="D290" s="1">
+        <v>35371</v>
+      </c>
+      <c r="E290">
+        <v>23</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>82</v>
+      </c>
+      <c r="B291" t="s">
+        <v>442</v>
+      </c>
+      <c r="C291" t="s">
+        <v>79</v>
+      </c>
+      <c r="D291" s="1">
+        <v>35309</v>
+      </c>
+      <c r="E291">
+        <v>23</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>117</v>
+      </c>
+      <c r="B292" t="s">
+        <v>473</v>
+      </c>
+      <c r="C292" t="s">
+        <v>111</v>
+      </c>
+      <c r="D292" s="1">
+        <v>33064</v>
+      </c>
+      <c r="E292">
+        <v>23</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>201</v>
+      </c>
+      <c r="B293" t="s">
+        <v>536</v>
+      </c>
+      <c r="C293" t="s">
+        <v>180</v>
+      </c>
+      <c r="D293" s="1">
+        <v>35181</v>
+      </c>
+      <c r="E293">
+        <v>23</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>214</v>
+      </c>
+      <c r="B294" t="s">
+        <v>541</v>
+      </c>
+      <c r="C294" t="s">
+        <v>189</v>
+      </c>
+      <c r="D294" s="1">
+        <v>35130</v>
+      </c>
+      <c r="E294">
+        <v>23</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>227</v>
+      </c>
+      <c r="B295" t="s">
+        <v>378</v>
+      </c>
+      <c r="C295" t="s">
+        <v>196</v>
+      </c>
+      <c r="D295" s="1">
+        <v>34064</v>
+      </c>
+      <c r="E295">
+        <v>23</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>272</v>
+      </c>
+      <c r="B296" t="s">
+        <v>582</v>
+      </c>
+      <c r="C296" t="s">
+        <v>236</v>
+      </c>
+      <c r="D296" s="1">
+        <v>32166</v>
+      </c>
+      <c r="E296">
+        <v>23</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>293</v>
+      </c>
+      <c r="B297" t="s">
+        <v>595</v>
+      </c>
+      <c r="C297" t="s">
+        <v>255</v>
+      </c>
+      <c r="D297" s="1">
+        <v>34239</v>
+      </c>
+      <c r="E297">
+        <v>23</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>314</v>
+      </c>
+      <c r="B298" t="s">
+        <v>382</v>
+      </c>
+      <c r="C298" t="s">
+        <v>276</v>
+      </c>
+      <c r="D298" s="1">
+        <v>31177</v>
+      </c>
+      <c r="E298">
+        <v>23</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>315</v>
+      </c>
+      <c r="B299" t="s">
+        <v>541</v>
+      </c>
+      <c r="C299" t="s">
+        <v>277</v>
+      </c>
+      <c r="D299" s="1">
+        <v>34557</v>
+      </c>
+      <c r="E299">
+        <v>23</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>317</v>
+      </c>
+      <c r="B300" t="s">
+        <v>607</v>
+      </c>
+      <c r="C300" t="s">
+        <v>279</v>
+      </c>
+      <c r="D300" s="1">
+        <v>34389</v>
+      </c>
+      <c r="E300">
+        <v>23</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>358</v>
+      </c>
+      <c r="B301" t="s">
+        <v>635</v>
+      </c>
+      <c r="C301" t="s">
+        <v>314</v>
+      </c>
+      <c r="D301" s="1">
+        <v>35502</v>
+      </c>
+      <c r="E301">
+        <v>23</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>365</v>
+      </c>
+      <c r="B302" t="s">
+        <v>451</v>
+      </c>
+      <c r="C302" t="s">
+        <v>320</v>
+      </c>
+      <c r="D302" s="1">
+        <v>36601</v>
+      </c>
+      <c r="E302">
+        <v>23</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>86</v>
+      </c>
+      <c r="B303" t="s">
+        <v>446</v>
+      </c>
+      <c r="C303" t="s">
+        <v>83</v>
+      </c>
+      <c r="D303" s="1">
+        <v>37134</v>
+      </c>
+      <c r="E303">
+        <v>24</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>115</v>
+      </c>
+      <c r="B304" t="s">
+        <v>471</v>
+      </c>
+      <c r="C304" t="s">
+        <v>109</v>
+      </c>
+      <c r="D304" s="1">
+        <v>33225</v>
+      </c>
+      <c r="E304">
+        <v>24</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>137</v>
+      </c>
+      <c r="B305" t="s">
+        <v>489</v>
+      </c>
+      <c r="C305" t="s">
+        <v>129</v>
+      </c>
+      <c r="D305" s="1">
+        <v>36692</v>
+      </c>
+      <c r="E305">
+        <v>24</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>246</v>
+      </c>
+      <c r="B306" t="s">
+        <v>564</v>
+      </c>
+      <c r="C306" t="s">
+        <v>214</v>
+      </c>
+      <c r="D306" s="1">
+        <v>33071</v>
+      </c>
+      <c r="E306">
+        <v>24</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>247</v>
+      </c>
+      <c r="B307" t="s">
+        <v>565</v>
+      </c>
+      <c r="C307" t="s">
+        <v>215</v>
+      </c>
+      <c r="D307" s="1">
+        <v>36568</v>
+      </c>
+      <c r="E307">
+        <v>24</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>267</v>
+      </c>
+      <c r="B308" t="s">
+        <v>489</v>
+      </c>
+      <c r="C308" t="s">
+        <v>232</v>
+      </c>
+      <c r="D308" s="1">
+        <v>33502</v>
+      </c>
+      <c r="E308">
+        <v>24</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>275</v>
+      </c>
+      <c r="B309" t="s">
+        <v>584</v>
+      </c>
+      <c r="C309" t="s">
+        <v>239</v>
+      </c>
+      <c r="D309" s="1">
+        <v>34013</v>
+      </c>
+      <c r="E309">
+        <v>24</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>294</v>
+      </c>
+      <c r="B310" t="s">
+        <v>596</v>
+      </c>
+      <c r="C310" t="s">
+        <v>256</v>
+      </c>
+      <c r="D310" s="1">
+        <v>33973</v>
+      </c>
+      <c r="E310">
+        <v>24</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>301</v>
+      </c>
+      <c r="B311" t="s">
+        <v>599</v>
+      </c>
+      <c r="C311" t="s">
+        <v>263</v>
+      </c>
+      <c r="D311" s="1">
+        <v>34571</v>
+      </c>
+      <c r="E311">
+        <v>24</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>328</v>
+      </c>
+      <c r="B312" t="s">
+        <v>614</v>
+      </c>
+      <c r="C312" t="s">
+        <v>287</v>
+      </c>
+      <c r="D312" s="1">
+        <v>34115</v>
+      </c>
+      <c r="E312">
+        <v>24</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>360</v>
+      </c>
+      <c r="B313" t="s">
+        <v>637</v>
+      </c>
+      <c r="C313" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" s="1">
+        <v>36320</v>
+      </c>
+      <c r="E313">
+        <v>24</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>363</v>
+      </c>
+      <c r="B314" t="s">
+        <v>631</v>
+      </c>
+      <c r="C314" t="s">
+        <v>319</v>
+      </c>
+      <c r="D314" s="1">
+        <v>35758</v>
+      </c>
+      <c r="E314">
+        <v>24</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>417</v>
+      </c>
+      <c r="B315" t="s">
+        <v>577</v>
+      </c>
+      <c r="C315" t="s">
+        <v>365</v>
+      </c>
+      <c r="D315" s="1">
+        <v>33885</v>
+      </c>
+      <c r="E315">
+        <v>24</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>47</v>
+      </c>
+      <c r="B316" t="s">
+        <v>411</v>
+      </c>
+      <c r="C316" t="s">
+        <v>49</v>
+      </c>
+      <c r="D316" s="1">
+        <v>36232</v>
+      </c>
+      <c r="E316">
+        <v>25</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>53</v>
+      </c>
+      <c r="B317" t="s">
+        <v>417</v>
+      </c>
+      <c r="C317" t="s">
+        <v>54</v>
+      </c>
+      <c r="D317" s="1">
+        <v>33758</v>
+      </c>
+      <c r="E317">
+        <v>25</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>121</v>
+      </c>
+      <c r="B318" t="s">
+        <v>475</v>
+      </c>
+      <c r="C318" t="s">
+        <v>113</v>
+      </c>
+      <c r="D318" s="1">
+        <v>35568</v>
+      </c>
+      <c r="E318">
+        <v>25</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="G318">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>148</v>
+      </c>
+      <c r="B319" t="s">
+        <v>499</v>
+      </c>
+      <c r="C319" t="s">
+        <v>140</v>
+      </c>
+      <c r="D319" s="1">
+        <v>35783</v>
+      </c>
+      <c r="E319">
+        <v>25</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>172</v>
+      </c>
+      <c r="B320" t="s">
+        <v>516</v>
+      </c>
+      <c r="C320" t="s">
+        <v>156</v>
+      </c>
+      <c r="D320" s="1">
+        <v>36586</v>
+      </c>
+      <c r="E320">
+        <v>25</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="G320">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>176</v>
+      </c>
+      <c r="B321" t="s">
+        <v>519</v>
+      </c>
+      <c r="C321" t="s">
+        <v>160</v>
+      </c>
+      <c r="D321" s="1">
+        <v>34101</v>
+      </c>
+      <c r="E321">
+        <v>25</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>188</v>
+      </c>
+      <c r="B322" t="s">
+        <v>527</v>
+      </c>
+      <c r="C322" t="s">
+        <v>170</v>
+      </c>
+      <c r="D322" s="1">
+        <v>33958</v>
+      </c>
+      <c r="E322">
+        <v>25</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>194</v>
+      </c>
+      <c r="B323" t="s">
+        <v>530</v>
+      </c>
+      <c r="C323" t="s">
+        <v>173</v>
+      </c>
+      <c r="D323" s="1">
+        <v>34258</v>
+      </c>
+      <c r="E323">
+        <v>25</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>244</v>
+      </c>
+      <c r="B324" t="s">
+        <v>463</v>
+      </c>
+      <c r="C324" t="s">
+        <v>212</v>
+      </c>
+      <c r="D324" s="1">
+        <v>34137</v>
+      </c>
+      <c r="E324">
+        <v>25</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>280</v>
+      </c>
+      <c r="B325" t="s">
+        <v>588</v>
+      </c>
+      <c r="C325" t="s">
+        <v>244</v>
+      </c>
+      <c r="D325" s="1">
+        <v>36042</v>
+      </c>
+      <c r="E325">
+        <v>25</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>377</v>
+      </c>
+      <c r="B326" t="s">
+        <v>645</v>
+      </c>
+      <c r="C326" t="s">
+        <v>331</v>
+      </c>
+      <c r="D326" s="1">
+        <v>33312</v>
+      </c>
+      <c r="E326">
+        <v>25</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>58</v>
+      </c>
+      <c r="B327" t="s">
+        <v>422</v>
+      </c>
+      <c r="C327" t="s">
+        <v>58</v>
+      </c>
+      <c r="D327" s="1">
+        <v>35090</v>
+      </c>
+      <c r="E327">
+        <v>26</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>139</v>
+      </c>
+      <c r="B328" t="s">
+        <v>491</v>
+      </c>
+      <c r="C328" t="s">
+        <v>131</v>
+      </c>
+      <c r="D328" s="1">
+        <v>35462</v>
+      </c>
+      <c r="E328">
+        <v>26</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>145</v>
+      </c>
+      <c r="B329" t="s">
+        <v>496</v>
+      </c>
+      <c r="C329" t="s">
+        <v>137</v>
+      </c>
+      <c r="D329" s="1">
+        <v>34174</v>
+      </c>
+      <c r="E329">
+        <v>26</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>217</v>
+      </c>
+      <c r="B330" t="s">
+        <v>542</v>
+      </c>
+      <c r="C330" t="s">
+        <v>189</v>
+      </c>
+      <c r="D330" s="1">
+        <v>36444</v>
+      </c>
+      <c r="E330">
+        <v>26</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>222</v>
+      </c>
+      <c r="B331" t="s">
+        <v>546</v>
+      </c>
+      <c r="C331" t="s">
+        <v>192</v>
+      </c>
+      <c r="D331" s="1">
+        <v>36535</v>
+      </c>
+      <c r="E331">
+        <v>26</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>238</v>
+      </c>
+      <c r="B332" t="s">
+        <v>557</v>
+      </c>
+      <c r="C332" t="s">
+        <v>207</v>
+      </c>
+      <c r="D332" s="1">
+        <v>34999</v>
+      </c>
+      <c r="E332">
+        <v>26</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>271</v>
+      </c>
+      <c r="B333" t="s">
+        <v>581</v>
+      </c>
+      <c r="C333" t="s">
+        <v>235</v>
+      </c>
+      <c r="D333" s="1">
+        <v>33608</v>
+      </c>
+      <c r="E333">
+        <v>26</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>290</v>
+      </c>
+      <c r="B334" t="s">
+        <v>593</v>
+      </c>
+      <c r="C334" t="s">
+        <v>252</v>
+      </c>
+      <c r="D334" s="1">
+        <v>35327</v>
+      </c>
+      <c r="E334">
+        <v>26</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>320</v>
+      </c>
+      <c r="B335" t="s">
+        <v>610</v>
+      </c>
+      <c r="C335" t="s">
+        <v>282</v>
+      </c>
+      <c r="D335" s="1">
+        <v>34988</v>
+      </c>
+      <c r="E335">
+        <v>26</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>329</v>
+      </c>
+      <c r="B336" t="s">
+        <v>615</v>
+      </c>
+      <c r="C336" t="s">
+        <v>288</v>
+      </c>
+      <c r="D336" s="1">
+        <v>37612</v>
+      </c>
+      <c r="E336">
+        <v>26</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>391</v>
+      </c>
+      <c r="B337" t="s">
+        <v>437</v>
+      </c>
+      <c r="C337" t="s">
+        <v>345</v>
+      </c>
+      <c r="D337" s="1">
+        <v>36761</v>
+      </c>
+      <c r="E337">
+        <v>26</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>397</v>
+      </c>
+      <c r="B338" t="s">
+        <v>662</v>
+      </c>
+      <c r="C338" t="s">
+        <v>350</v>
+      </c>
+      <c r="D338" s="1">
+        <v>36145</v>
+      </c>
+      <c r="E338">
+        <v>26</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>402</v>
+      </c>
+      <c r="B339" t="s">
+        <v>493</v>
+      </c>
+      <c r="C339" t="s">
+        <v>355</v>
+      </c>
+      <c r="D339" s="1">
+        <v>34517</v>
+      </c>
+      <c r="E339">
+        <v>26</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>414</v>
+      </c>
+      <c r="B340" t="s">
+        <v>673</v>
+      </c>
+      <c r="C340" t="s">
+        <v>363</v>
+      </c>
+      <c r="D340" s="1">
+        <v>32319</v>
+      </c>
+      <c r="E340">
+        <v>26</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>31</v>
+      </c>
+      <c r="B341" t="s">
+        <v>395</v>
+      </c>
+      <c r="C341" t="s">
+        <v>36</v>
+      </c>
+      <c r="D341" s="1">
+        <v>36422</v>
+      </c>
+      <c r="E341">
+        <v>27</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>43</v>
+      </c>
+      <c r="B342" t="s">
+        <v>407</v>
+      </c>
+      <c r="C342" t="s">
+        <v>45</v>
+      </c>
+      <c r="D342" s="1">
+        <v>35630</v>
+      </c>
+      <c r="E342">
+        <v>27</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>52</v>
+      </c>
+      <c r="B343" t="s">
+        <v>416</v>
+      </c>
+      <c r="C343" t="s">
+        <v>53</v>
+      </c>
+      <c r="D343" s="1">
+        <v>36469</v>
+      </c>
+      <c r="E343">
+        <v>27</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>54</v>
+      </c>
+      <c r="B344" t="s">
+        <v>418</v>
+      </c>
+      <c r="C344" t="s">
+        <v>54</v>
+      </c>
+      <c r="D344" s="1">
+        <v>37105</v>
+      </c>
+      <c r="E344">
+        <v>27</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>68</v>
+      </c>
+      <c r="B345" t="s">
+        <v>430</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" s="1">
+        <v>33878</v>
+      </c>
+      <c r="E345">
+        <v>27</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>74</v>
+      </c>
+      <c r="B346" t="s">
+        <v>436</v>
+      </c>
+      <c r="C346" t="s">
+        <v>73</v>
+      </c>
+      <c r="D346" s="1">
+        <v>36473</v>
+      </c>
+      <c r="E346">
+        <v>27</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>76</v>
+      </c>
+      <c r="B347" t="s">
+        <v>382</v>
+      </c>
+      <c r="C347" t="s">
+        <v>75</v>
+      </c>
+      <c r="D347" s="1">
+        <v>33980</v>
+      </c>
+      <c r="E347">
+        <v>27</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>105</v>
+      </c>
+      <c r="B348" t="s">
+        <v>464</v>
+      </c>
+      <c r="C348" t="s">
+        <v>99</v>
+      </c>
+      <c r="D348" s="1">
+        <v>37072</v>
+      </c>
+      <c r="E348">
+        <v>27</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="G348">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>132</v>
+      </c>
+      <c r="B349" t="s">
+        <v>486</v>
+      </c>
+      <c r="C349" t="s">
+        <v>124</v>
+      </c>
+      <c r="D349" s="1">
+        <v>31542</v>
+      </c>
+      <c r="E349">
+        <v>27</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="G349">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>144</v>
+      </c>
+      <c r="B350" t="s">
+        <v>495</v>
+      </c>
+      <c r="C350" t="s">
+        <v>136</v>
+      </c>
+      <c r="D350" s="1">
+        <v>35926</v>
+      </c>
+      <c r="E350">
+        <v>27</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>292</v>
+      </c>
+      <c r="B351" t="s">
+        <v>594</v>
+      </c>
+      <c r="C351" t="s">
+        <v>254</v>
+      </c>
+      <c r="D351" s="1">
+        <v>35590</v>
+      </c>
+      <c r="E351">
+        <v>27</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>384</v>
+      </c>
+      <c r="B352" t="s">
+        <v>606</v>
+      </c>
+      <c r="C352" t="s">
+        <v>338</v>
+      </c>
+      <c r="D352" s="1">
+        <v>36177</v>
+      </c>
+      <c r="E352">
+        <v>27</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>390</v>
+      </c>
+      <c r="B353" t="s">
+        <v>657</v>
+      </c>
+      <c r="C353" t="s">
+        <v>344</v>
+      </c>
+      <c r="D353" s="1">
+        <v>34393</v>
+      </c>
+      <c r="E353">
+        <v>27</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+      <c r="G353">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>72</v>
+      </c>
+      <c r="B354" t="s">
+        <v>434</v>
+      </c>
+      <c r="C354" t="s">
+        <v>71</v>
+      </c>
+      <c r="D354" s="1">
+        <v>32619</v>
+      </c>
+      <c r="E354">
+        <v>28</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>95</v>
+      </c>
+      <c r="B355" t="s">
+        <v>455</v>
+      </c>
+      <c r="C355" t="s">
+        <v>90</v>
+      </c>
+      <c r="D355" s="1">
+        <v>36761</v>
+      </c>
+      <c r="E355">
+        <v>28</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>108</v>
+      </c>
+      <c r="B356" t="s">
+        <v>193</v>
+      </c>
+      <c r="C356" t="s">
+        <v>102</v>
+      </c>
+      <c r="D356" s="1">
+        <v>33765</v>
+      </c>
+      <c r="E356">
+        <v>28</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>112</v>
+      </c>
+      <c r="B357" t="s">
+        <v>381</v>
+      </c>
+      <c r="C357" t="s">
+        <v>106</v>
+      </c>
+      <c r="D357" s="1">
+        <v>32064</v>
+      </c>
+      <c r="E357">
+        <v>28</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>143</v>
+      </c>
+      <c r="B358" t="s">
+        <v>426</v>
+      </c>
+      <c r="C358" t="s">
+        <v>135</v>
+      </c>
+      <c r="D358" s="1">
+        <v>37189</v>
+      </c>
+      <c r="E358">
+        <v>28</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>146</v>
+      </c>
+      <c r="B359" t="s">
+        <v>497</v>
+      </c>
+      <c r="C359" t="s">
+        <v>138</v>
+      </c>
+      <c r="D359" s="1">
+        <v>35958</v>
+      </c>
+      <c r="E359">
+        <v>28</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>158</v>
+      </c>
+      <c r="B360" t="s">
+        <v>505</v>
+      </c>
+      <c r="C360" t="s">
+        <v>150</v>
+      </c>
+      <c r="D360" s="1">
+        <v>33783</v>
+      </c>
+      <c r="E360">
+        <v>28</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>199</v>
+      </c>
+      <c r="B361" t="s">
+        <v>534</v>
+      </c>
+      <c r="C361" t="s">
+        <v>178</v>
+      </c>
+      <c r="D361" s="1">
+        <v>35864</v>
+      </c>
+      <c r="E361">
+        <v>28</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>203</v>
+      </c>
+      <c r="B362" t="s">
+        <v>188</v>
+      </c>
+      <c r="C362" t="s">
+        <v>182</v>
+      </c>
+      <c r="D362" s="1">
+        <v>32057</v>
+      </c>
+      <c r="E362">
+        <v>28</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>281</v>
+      </c>
+      <c r="B363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>244</v>
+      </c>
+      <c r="D363" s="1">
+        <v>35316</v>
+      </c>
+      <c r="E363">
+        <v>28</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>308</v>
+      </c>
+      <c r="B364" t="s">
+        <v>603</v>
+      </c>
+      <c r="C364" t="s">
+        <v>270</v>
+      </c>
+      <c r="D364" s="1">
+        <v>34126</v>
+      </c>
+      <c r="E364">
+        <v>28</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>309</v>
+      </c>
+      <c r="B365" t="s">
+        <v>604</v>
+      </c>
+      <c r="C365" t="s">
+        <v>271</v>
+      </c>
+      <c r="D365" s="1">
+        <v>35645</v>
+      </c>
+      <c r="E365">
+        <v>28</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>313</v>
+      </c>
+      <c r="B366" t="s">
+        <v>432</v>
+      </c>
+      <c r="C366" t="s">
+        <v>275</v>
+      </c>
+      <c r="D366" s="1">
+        <v>35374</v>
+      </c>
+      <c r="E366">
+        <v>28</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>403</v>
+      </c>
+      <c r="B367" t="s">
+        <v>665</v>
+      </c>
+      <c r="C367" t="s">
+        <v>356</v>
+      </c>
+      <c r="D367" s="1">
+        <v>32673</v>
+      </c>
+      <c r="E367">
+        <v>28</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>45</v>
+      </c>
+      <c r="B368" t="s">
+        <v>409</v>
+      </c>
+      <c r="C368" t="s">
+        <v>47</v>
+      </c>
+      <c r="D368" s="1">
+        <v>36893</v>
+      </c>
+      <c r="E368">
+        <v>29</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
+      </c>
+      <c r="G368">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>62</v>
+      </c>
+      <c r="B369" t="s">
+        <v>77</v>
+      </c>
+      <c r="C369" t="s">
+        <v>62</v>
+      </c>
+      <c r="D369" s="1">
+        <v>34148</v>
+      </c>
+      <c r="E369">
+        <v>29</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>65</v>
+      </c>
+      <c r="B370" t="s">
+        <v>113</v>
+      </c>
+      <c r="C370" t="s">
+        <v>65</v>
+      </c>
+      <c r="D370" s="1">
+        <v>33922</v>
+      </c>
+      <c r="E370">
+        <v>29</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>97</v>
+      </c>
+      <c r="B371" t="s">
+        <v>457</v>
+      </c>
+      <c r="C371" t="s">
+        <v>91</v>
+      </c>
+      <c r="D371" s="1">
+        <v>34020</v>
+      </c>
+      <c r="E371">
+        <v>29</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>127</v>
+      </c>
+      <c r="B372" t="s">
+        <v>481</v>
+      </c>
+      <c r="C372" t="s">
+        <v>119</v>
+      </c>
+      <c r="D372" s="1">
+        <v>34068</v>
+      </c>
+      <c r="E372">
+        <v>29</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>149</v>
+      </c>
+      <c r="B373" t="s">
+        <v>500</v>
+      </c>
+      <c r="C373" t="s">
+        <v>141</v>
+      </c>
+      <c r="D373" s="1">
+        <v>36068</v>
+      </c>
+      <c r="E373">
+        <v>29</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>177</v>
+      </c>
+      <c r="B374" t="s">
+        <v>520</v>
+      </c>
+      <c r="C374" t="s">
+        <v>161</v>
+      </c>
+      <c r="D374" s="1">
+        <v>34360</v>
+      </c>
+      <c r="E374">
+        <v>29</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>191</v>
+      </c>
+      <c r="B375" t="s">
+        <v>506</v>
+      </c>
+      <c r="C375" t="s">
+        <v>172</v>
+      </c>
+      <c r="D375" s="1">
+        <v>35338</v>
+      </c>
+      <c r="E375">
+        <v>29</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>230</v>
+      </c>
+      <c r="B376" t="s">
+        <v>552</v>
+      </c>
+      <c r="C376" t="s">
+        <v>199</v>
+      </c>
+      <c r="D376" s="1">
+        <v>36221</v>
+      </c>
+      <c r="E376">
+        <v>29</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>236</v>
+      </c>
+      <c r="B377" t="s">
+        <v>402</v>
+      </c>
+      <c r="C377" t="s">
+        <v>205</v>
+      </c>
+      <c r="D377" s="1">
+        <v>34904</v>
+      </c>
+      <c r="E377">
+        <v>29</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>297</v>
+      </c>
+      <c r="B378" t="s">
+        <v>597</v>
+      </c>
+      <c r="C378" t="s">
+        <v>259</v>
+      </c>
+      <c r="D378" s="1">
+        <v>33747</v>
+      </c>
+      <c r="E378">
+        <v>29</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>59</v>
+      </c>
+      <c r="B379" t="s">
+        <v>423</v>
+      </c>
+      <c r="C379" t="s">
+        <v>59</v>
+      </c>
+      <c r="D379" s="1">
+        <v>32495</v>
+      </c>
+      <c r="E379">
+        <v>30</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>70</v>
+      </c>
+      <c r="B380" t="s">
+        <v>432</v>
+      </c>
+      <c r="C380" t="s">
+        <v>70</v>
+      </c>
+      <c r="D380" s="1">
+        <v>32852</v>
+      </c>
+      <c r="E380">
+        <v>30</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>110</v>
+      </c>
+      <c r="B381" t="s">
+        <v>467</v>
+      </c>
+      <c r="C381" t="s">
+        <v>104</v>
+      </c>
+      <c r="D381" s="1">
+        <v>35597</v>
+      </c>
+      <c r="E381">
+        <v>30</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>154</v>
+      </c>
+      <c r="B382" t="s">
+        <v>276</v>
+      </c>
+      <c r="C382" t="s">
+        <v>146</v>
+      </c>
+      <c r="D382" s="1">
+        <v>32998</v>
+      </c>
+      <c r="E382">
+        <v>30</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>180</v>
+      </c>
+      <c r="B383" t="s">
+        <v>522</v>
+      </c>
+      <c r="C383" t="s">
+        <v>163</v>
+      </c>
+      <c r="D383" s="1">
+        <v>35922</v>
+      </c>
+      <c r="E383">
+        <v>30</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>209</v>
+      </c>
+      <c r="B384" t="s">
+        <v>452</v>
+      </c>
+      <c r="C384" t="s">
+        <v>185</v>
+      </c>
+      <c r="D384" s="1">
+        <v>32980</v>
+      </c>
+      <c r="E384">
+        <v>30</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>229</v>
+      </c>
+      <c r="B385" t="s">
+        <v>390</v>
+      </c>
+      <c r="C385" t="s">
+        <v>198</v>
+      </c>
+      <c r="D385" s="1">
+        <v>35243</v>
+      </c>
+      <c r="E385">
+        <v>30</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>257</v>
+      </c>
+      <c r="B386" t="s">
+        <v>572</v>
+      </c>
+      <c r="C386" t="s">
+        <v>224</v>
+      </c>
+      <c r="D386" s="1">
+        <v>35356</v>
+      </c>
+      <c r="E386">
+        <v>30</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>286</v>
+      </c>
+      <c r="B387" t="s">
+        <v>501</v>
+      </c>
+      <c r="C387" t="s">
+        <v>249</v>
+      </c>
+      <c r="D387" s="1">
+        <v>32754</v>
+      </c>
+      <c r="E387">
+        <v>30</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>410</v>
+      </c>
+      <c r="B388" t="s">
+        <v>669</v>
+      </c>
+      <c r="C388" t="s">
+        <v>359</v>
+      </c>
+      <c r="D388" s="1">
+        <v>35152</v>
+      </c>
+      <c r="E388">
+        <v>30</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>418</v>
+      </c>
+      <c r="B389" t="s">
+        <v>676</v>
+      </c>
+      <c r="C389" t="s">
+        <v>366</v>
+      </c>
+      <c r="D389" s="1">
+        <v>35506</v>
+      </c>
+      <c r="E389">
+        <v>30</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G389">
+    <sortCondition ref="E1:E389"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB5ECA-8321-184D-889C-B70C94B158D5}">
   <dimension ref="A1:M389"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
